--- a/Course_Requirements/Activity Logs&Task Summaries/James/Task SummaryWk11.xlsx
+++ b/Course_Requirements/Activity Logs&Task Summaries/James/Task SummaryWk11.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uni\2019\S2-FINAL!!\CSC3600-ICT Professional Project\A3Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kami/Dropbox/USQ/Bachelor of Information Technology/2019/Semester 2/CSC3600 - ICT Professional Project/Assignment 3/CSC3600-ICT-Professional-Project-master/Course_Requirements/Activity Logs&amp;Task Summaries/Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9EAA8D8-741D-455A-A174-6A7795A7B65E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCAFE89-9D12-D847-A2DB-AFCAD278C99A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
+    <workbookView xWindow="36080" yWindow="7940" windowWidth="14560" windowHeight="11380" xr2:uid="{2C90FF03-35F6-430D-80AA-644AEA31AD14}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK SUMMARY SHEET" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Task Summary Sheet</t>
   </si>
@@ -54,9 +48,6 @@
     <t>New Estimate</t>
   </si>
   <si>
-    <t>Cumulative Total:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total: </t>
   </si>
   <si>
@@ -79,6 +70,27 @@
   </si>
   <si>
     <t>• "Stage" and "Task" should match those specified in the WBS in project plan</t>
+  </si>
+  <si>
+    <t>Project Build</t>
+  </si>
+  <si>
+    <t>Cumulative Total: 220</t>
+  </si>
+  <si>
+    <t>Implementation of final feature test</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Integration Testing (with front end)</t>
+  </si>
+  <si>
+    <t>Finish Documentation, prepare presentation for client</t>
+  </si>
+  <si>
+    <t>James McKeown</t>
   </si>
 </sst>
 </file>
@@ -669,32 +681,36 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.140625" style="5"/>
+    <col min="1" max="1" width="16.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="7">
+        <v>11</v>
+      </c>
       <c r="F1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="47" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -711,129 +727,162 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="14"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="14"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="14"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="14"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="14"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="8" customFormat="1" ht="23" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="14"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="18">
-        <f>SUM(D3:D13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
